--- a/assets/data/Witness%20Deck%20for%20APP.xlsx
+++ b/assets/data/Witness%20Deck%20for%20APP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz\CoolMiniOrNot Dropbox\Production\RPGs\RP-ASC - Assassin's Creed\Production WIP\Notes on APP\Conversions files for APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\acrpg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0643519C-83A1-4D7D-B34B-DD509180C0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6F32E0-E14D-4F30-A651-410ECDF13D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Legendary founder and first king of Rome.</t>
   </si>
   <si>
-    <t>“Words instruct, illustrations lead."</t>
-  </si>
-  <si>
     <t>Ancient Greek, Etruscan, Latin</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>First born of the Gens Romilia, founder of the Shields of Mars.</t>
   </si>
   <si>
-    <t>"We're made by the storms we walk through."</t>
-  </si>
-  <si>
     <t>Ancient Greek, Latin, Sabine</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>Expert hunter and pathfinder, devoted to the godess Diana.</t>
   </si>
   <si>
-    <t>"Be the predator, not the prey."</t>
-  </si>
-  <si>
     <t>Latin</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
     <t xml:space="preserve">Respected priestess of the Urbe's temple of Vesta. </t>
   </si>
   <si>
-    <t>"The gods only, I do serve."</t>
-  </si>
-  <si>
     <t>Etruscan, Latin, Oscan</t>
   </si>
   <si>
@@ -140,18 +128,12 @@
     <t>Spartan warrior, heiress of Leonida and Isu Hybrid.</t>
   </si>
   <si>
-    <t>"If I was your punishment, you'd already be dead."</t>
-  </si>
-  <si>
     <t>Ancient Greek, Laconic</t>
   </si>
   <si>
     <t>Killer of Xerxes, credited as the first Assassin.</t>
   </si>
   <si>
-    <t>"Yet for all their power, they couldn't protect you. Not from me."</t>
-  </si>
-  <si>
     <t>Ancient Greek, Old Persian</t>
   </si>
   <si>
@@ -185,18 +167,12 @@
     <t>Hunter, merchant and wilderness guide.</t>
   </si>
   <si>
-    <t>"It is not possible to step into the same river twice."</t>
-  </si>
-  <si>
     <t>Ptolemaic Egypt</t>
   </si>
   <si>
     <t>Bayek of Siwa</t>
   </si>
   <si>
-    <t>"Sleep? I never sleep. I just wait. In the shadows."</t>
-  </si>
-  <si>
     <t>Egyptian, Koine Greek</t>
   </si>
   <si>
@@ -206,9 +182,6 @@
     <t>Descendant of Kassandra and founder of the Hidden Ones.</t>
   </si>
   <si>
-    <t>"From darkness we have come, and in darkness we shall stay."</t>
-  </si>
-  <si>
     <t>Aramaic, Latin, Koine Greek</t>
   </si>
   <si>
@@ -218,9 +191,6 @@
     <t>Loyal follower and friend of Cleopatra, ally of the Hidden Ones.</t>
   </si>
   <si>
-    <t>"It's just a flesh wound."</t>
-  </si>
-  <si>
     <t>Latin, Egyptian, Koine Greek</t>
   </si>
   <si>
@@ -230,9 +200,6 @@
     <t xml:space="preserve"> Greek mercenary and nauarchos (admiral).</t>
   </si>
   <si>
-    <t>"Ah, the gods have such a sense of humor!"</t>
-  </si>
-  <si>
     <t>Koine Greek</t>
   </si>
   <si>
@@ -242,9 +209,6 @@
     <t>Childhood friend of Bayek, and later member of the Hidden Ones.</t>
   </si>
   <si>
-    <t>"Wealth, luxury, fame! What more could a woman want?"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Egyptian, Koine Greek, Nubian </t>
   </si>
   <si>
@@ -254,9 +218,6 @@
     <t>Renegade Phylakitai soldier and ally of the Hidden Ones.</t>
   </si>
   <si>
-    <t>"You had your chance to kill me, you won't get another."</t>
-  </si>
-  <si>
     <t>Viking Age</t>
   </si>
   <si>
@@ -290,9 +251,6 @@
     <t xml:space="preserve">Chief advisor of Ravensthorpe and wife of Sigurd Styrbjornsson. </t>
   </si>
   <si>
-    <t>"I feel somewhat trapped. In this room, in this settlement, in this life."</t>
-  </si>
-  <si>
     <t>English, Norse</t>
   </si>
   <si>
@@ -323,9 +281,6 @@
     <t>Mysterious knight devoted to the Hidden One cause.</t>
   </si>
   <si>
-    <t>"I will fight against those who deny freedom to others."</t>
-  </si>
-  <si>
     <t>The Levant</t>
   </si>
   <si>
@@ -335,9 +290,6 @@
     <t xml:space="preserve">Member of the Levantine Brotherhood, and later mentor of many other Assassins. </t>
   </si>
   <si>
-    <t>"Our Creed does not command us to be free. It commands us to be wise."</t>
-  </si>
-  <si>
     <t>Arabic, Greek, French, Mongolian</t>
   </si>
   <si>
@@ -347,9 +299,6 @@
     <t>English noblewoman and former Templar, wife of Altair.</t>
   </si>
   <si>
-    <t>"For the good of the Brotherhood, not for the purposes of vengeance."</t>
-  </si>
-  <si>
     <t>Arabic, English, French, Mongolian</t>
   </si>
   <si>
@@ -359,9 +308,6 @@
     <t xml:space="preserve">Assassin of the Levantine Brotherhood, and Altair and Maria Thorpe's eldest son. </t>
   </si>
   <si>
-    <t>"All that is good in me, began with my father."</t>
-  </si>
-  <si>
     <t>Arabic, Greek, Mongolian</t>
   </si>
   <si>
@@ -371,9 +317,6 @@
     <t>Assassin of the Levantine Brotherhood and head of the Jerusalem Bureau.</t>
   </si>
   <si>
-    <t>"As we share the glory of our victories, so too should we share the pain of our defeat."</t>
-  </si>
-  <si>
     <t>Arabic, Greek</t>
   </si>
   <si>
@@ -383,9 +326,6 @@
     <t>Acolyte of the Levantine Brotherhood.</t>
   </si>
   <si>
-    <t>"Nothing is true, everything is permitted."</t>
-  </si>
-  <si>
     <t>Arabic, French</t>
   </si>
   <si>
@@ -395,9 +335,6 @@
     <t>Assassin of the Mongolian Brotherhood.</t>
   </si>
   <si>
-    <t>"We cannot hope to fight them, but we can still sabotage their efforts."</t>
-  </si>
-  <si>
     <t>Arabic, Mongolian</t>
   </si>
   <si>
@@ -422,9 +359,6 @@
     <t>Italian anatomist, sculptor, cartographer, painter, botanist, engineer, architect, and mathematician.</t>
   </si>
   <si>
-    <t>"I'm not content to merely capture the world. I want to change it."</t>
-  </si>
-  <si>
     <t>French, Italian, Latin</t>
   </si>
   <si>
@@ -434,15 +368,9 @@
     <t>Leader of the Florentine and Roman thieves' guilds and member of the Italian Brotherhood.</t>
   </si>
   <si>
-    <t>"It is my business to know everything in this city."</t>
-  </si>
-  <si>
     <t>Member of the Italian Brotherhood and leader of Venetian and Roman mercenaries.</t>
   </si>
   <si>
-    <t>"Nobility comes from fighting beside your soldiers."</t>
-  </si>
-  <si>
     <t>Greek, Italian, Latin</t>
   </si>
   <si>
@@ -452,18 +380,12 @@
     <t>Member of the Venetian Thieves Guild and later the Madame of the Rosa in Fiore and Master Assassin.</t>
   </si>
   <si>
-    <t>"I hope you catch the plague, you bastard!"</t>
-  </si>
-  <si>
     <t>Peste</t>
   </si>
   <si>
     <t>Physician and friend of the Assassins Brotherhood.</t>
   </si>
   <si>
-    <t>"In sufficiently high doses, what serves as a cure can also become a lethal force."</t>
-  </si>
-  <si>
     <t>French, Greek, Italian, Latin</t>
   </si>
   <si>
@@ -500,18 +422,12 @@
     <t>Former general of the Chinese army, now a rebel who has joined the Brotherhood's cause.</t>
   </si>
   <si>
-    <t>"Revenge is never a straight line."</t>
-  </si>
-  <si>
     <t>The Crouching Tiger</t>
   </si>
   <si>
     <t>Swordmaster and head of a private security company.</t>
   </si>
   <si>
-    <t>"Real sharpness comes without sweat"</t>
-  </si>
-  <si>
     <t>Chinese, Japanese, Portuguese</t>
   </si>
   <si>
@@ -521,9 +437,6 @@
     <t>Wandering warrior monk and pirate hunter.</t>
   </si>
   <si>
-    <t>"Freedom is the only condition for happiness."</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Chinese, Japanese</t>
   </si>
   <si>
@@ -533,9 +446,6 @@
     <t xml:space="preserve">Ronin working as a mercenary. </t>
   </si>
   <si>
-    <t>"A blade shall claim my final breath. My own, or my foe's."</t>
-  </si>
-  <si>
     <t>Chinese, Japanese</t>
   </si>
   <si>
@@ -545,9 +455,6 @@
     <t>Welsh-born British privateer-turned-pirate and a member of the West Indies and British Brotherhoods of Assassins.</t>
   </si>
   <si>
-    <t>"Here I am ... with riches and a reputation, feeling no wiser than when I left home."</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -557,36 +464,24 @@
     <t>Pirate and member of the West Indies Brotherhood of Assassins.</t>
   </si>
   <si>
-    <t>"I must devote my energy to those who struggle for freedom."</t>
-  </si>
-  <si>
     <t>Dakodonou</t>
   </si>
   <si>
     <t>Member of the Saint-Dominigue Brotherhood of Assassins and Haitian voodoo practitioner.</t>
   </si>
   <si>
-    <t>"Rise! So I can kill you again."</t>
-  </si>
-  <si>
     <t>Mary Read</t>
   </si>
   <si>
     <t xml:space="preserve">One of the founders of the Pirate Republic of Nassau and member of the West Indies Brotherhood of Assassins. </t>
   </si>
   <si>
-    <t>"We follow a creed, aye. But it does not command us to act or submit - only to be wise."</t>
-  </si>
-  <si>
     <t>Ah Tabai</t>
   </si>
   <si>
     <t>Maya Assassin and Mentor of the West Indies Brotherhood.</t>
   </si>
   <si>
-    <t>"Our goal must be to scatter our operations. To live and work among the people we protect."</t>
-  </si>
-  <si>
     <t>Jackie Magpie</t>
   </si>
   <si>
@@ -611,9 +506,6 @@
     <t>New Orleans Assassin of French and African heritage.</t>
   </si>
   <si>
-    <t>"Commit injustice in this world, and I'll send you to the next."</t>
-  </si>
-  <si>
     <t>English, French</t>
   </si>
   <si>
@@ -623,27 +515,18 @@
     <t xml:space="preserve">Pioneer and sworn enemy of the Templar Order. </t>
   </si>
   <si>
-    <t>"The trials we suffered getting here were strange and many."</t>
-  </si>
-  <si>
     <t>The Sasquatch</t>
   </si>
   <si>
     <t>Solitary hunter, hermit of the woods.</t>
   </si>
   <si>
-    <t>"Ideologies, like wolves, stay outside my cavern."</t>
-  </si>
-  <si>
     <t>Kanien’kéha (Mohawk language), English, French</t>
   </si>
   <si>
     <t>Native American freedom fighter.</t>
   </si>
   <si>
-    <t>"Your spirit is weak!"</t>
-  </si>
-  <si>
     <t>French Revolution</t>
   </si>
   <si>
@@ -653,9 +536,6 @@
     <t xml:space="preserve">Master Assassin of the French Brotherhood, raised by the Templar Order's Grand Master. </t>
   </si>
   <si>
-    <t>"All that we do, all that we are, begins and ends with ourselves."</t>
-  </si>
-  <si>
     <t>French</t>
   </si>
   <si>
@@ -665,45 +545,30 @@
     <t>French noblewoman and former member of the Parisian Rite of the Templar Order.</t>
   </si>
   <si>
-    <t>"My fate is my own. My choice is my own."</t>
-  </si>
-  <si>
     <t>Hervé Quemar</t>
   </si>
   <si>
     <t>Lawyer, Master Assassin, and member of the Parisian Brotherhood's Assassin Council.</t>
   </si>
   <si>
-    <t>"Count yourself lucky this is the extent of your punishment."</t>
-  </si>
-  <si>
     <t>Sophie Trenet</t>
   </si>
   <si>
     <t>Essayist, Master Assassin, and member of the Parisian Brotherhood's Assassin Council.</t>
   </si>
   <si>
-    <t>"If we danced about on a simple scale, you'd be right. But the truth is more complicated."</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Théroigne de Méricourt</t>
   </si>
   <si>
     <t>Belgian entertainer, defender of the poor and advocate for women's rights.</t>
   </si>
   <si>
-    <t>"We speak for the hungry! We speak for the shivering!"</t>
-  </si>
-  <si>
     <t>Mousquetaire Noir</t>
   </si>
   <si>
     <t>Trained by former musketeers, devoted to the Brotherhood cause.</t>
   </si>
   <si>
-    <t>"The merit of all things lies in their difficulty."</t>
-  </si>
-  <si>
     <t>French, Italian</t>
   </si>
   <si>
@@ -716,9 +581,6 @@
     <t>Master Assassin of the British Brotherhood.</t>
   </si>
   <si>
-    <t>"Who's a good horse? You are!"</t>
-  </si>
-  <si>
     <t>Evie Frye</t>
   </si>
   <si>
@@ -734,27 +596,18 @@
     <t>Chief Inspector of the London Metropolitan Police.</t>
   </si>
   <si>
-    <t>"That's confidential."</t>
-  </si>
-  <si>
     <t>Bram Stoker</t>
   </si>
   <si>
     <t xml:space="preserve"> Irish author, novelist, and theatre critic for a newspaper.</t>
   </si>
   <si>
-    <t>"There is a reason why all things are as they are."</t>
-  </si>
-  <si>
     <t xml:space="preserve">Doctor Van Helsing </t>
   </si>
   <si>
     <t>Dutch doctor and polymath, expert in the fields of medicine, science and the occult.</t>
   </si>
   <si>
-    <t>"We learn from failure, not from success!"</t>
-  </si>
-  <si>
     <t>Dutch, English, Latin</t>
   </si>
   <si>
@@ -764,9 +617,6 @@
     <t>Sir Henry Green, Son of Arbaaz Mir, Assassin mentor of the Frye twins.</t>
   </si>
   <si>
-    <t>"I believe I know someone who can help with that."</t>
-  </si>
-  <si>
     <t>English, Hindi, Punjabi</t>
   </si>
   <si>
@@ -779,45 +629,30 @@
     <t>Assassin of the British Brotherhood, granddaughter of Jacob Frye.</t>
   </si>
   <si>
-    <t>"That's not very polite."</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ernest Hemingway </t>
   </si>
   <si>
     <t>American novelist and journalist, second lieutenant in the Red Cross.</t>
   </si>
   <si>
-    <t>"Courage is grace under pressure."</t>
-  </si>
-  <si>
     <t>Preeti Kaur</t>
   </si>
   <si>
     <t>Freedom fighter, and former Sikh army soldier.</t>
   </si>
   <si>
-    <t>"With determination, I will be triumphant!"</t>
-  </si>
-  <si>
     <t>Evelyn O’Connel</t>
   </si>
   <si>
     <t>Archeologist and explorer known for her courage and resourcefulness.</t>
   </si>
   <si>
-    <t>"If I can see it and I can touch it, then it is real!"</t>
-  </si>
-  <si>
     <t>Oren</t>
   </si>
   <si>
     <t>Oren is the codename assigned to a Baltic-German double agent by British Intelligence.</t>
   </si>
   <si>
-    <t>"Espionage is nothing but becoming a fly."</t>
-  </si>
-  <si>
     <t>English, German, Swedish</t>
   </si>
   <si>
@@ -827,9 +662,6 @@
     <t>Agent of the Inner Sanctum supervising the Templar Order and searching for Pieces of Eden.</t>
   </si>
   <si>
-    <t>"I don't answer to you. As I said, I'm here as a courtesy."</t>
-  </si>
-  <si>
     <t>English, French, German</t>
   </si>
   <si>
@@ -842,9 +674,6 @@
     <t>Major in the British Army.</t>
   </si>
   <si>
-    <t>"I'm going to kill you with my tea cup."</t>
-  </si>
-  <si>
     <t>English, German</t>
   </si>
   <si>
@@ -863,9 +692,6 @@
     <t>Famous burlesque dancer, agent of French intelligence.</t>
   </si>
   <si>
-    <t>" I shall dance all my life... I would like to die, breathless, spent, at the end of a dance.”</t>
-  </si>
-  <si>
     <t>English, French, German, Spanish</t>
   </si>
   <si>
@@ -914,9 +740,6 @@
     <t>Kashmiri member of the Indian Brotherhood of Assassins, father of Henry Green.</t>
   </si>
   <si>
-    <t>"I don't believe in curses."</t>
-  </si>
-  <si>
     <t>Nikolaï Orelov</t>
   </si>
   <si>
@@ -935,9 +758,6 @@
     <t>Daughter of Tsar Nicholas II, she bonded with Shao Jun's memories through a Precursor Box.</t>
   </si>
   <si>
-    <t>"I have strength now. I know exactly who I am."</t>
-  </si>
-  <si>
     <t>Chinese, German, Italian, Japanese, Russian</t>
   </si>
   <si>
@@ -947,33 +767,21 @@
     <t>Also known as Deimos, heir of the Spartan King Leonidas, Isu Hybrid and Sage of the Cult of Kosmos.</t>
   </si>
   <si>
-    <t>"Even the gods cower in my wake. Kneel or die!"</t>
-  </si>
-  <si>
     <t>Shay Patrick Cormac</t>
   </si>
   <si>
     <t>Member of the Colonial Rite of the Templar Order.</t>
   </si>
   <si>
-    <t>"May the Father of Understanding guide us all."</t>
-  </si>
-  <si>
     <t>Haytham Kenway</t>
   </si>
   <si>
     <t xml:space="preserve">First Grand Master of the Templar Order's Colonial Rite, leader of the Great Purge. </t>
   </si>
   <si>
-    <t>"Tyranny and injustice are just symptoms. Their true cause is human weakness."</t>
-  </si>
-  <si>
     <t>English, Kanien’kéha (Mohawk language)</t>
   </si>
   <si>
-    <t>"If you had fought like a man, then you need not have been killed like a rat."</t>
-  </si>
-  <si>
     <t>Timeframe</t>
   </si>
   <si>
@@ -2498,15 +2306,6 @@
     <t>Darius</t>
   </si>
   <si>
-    <t>"I'm a storyteller, or I was. This war is forcing us all to new extremes."</t>
-  </si>
-  <si>
-    <t>"I have an appetite for rare treasures."</t>
-  </si>
-  <si>
-    <t>"I was born to bear these sword and shield."</t>
-  </si>
-  <si>
     <t>Last Medjay of Egypt and founder of the Hidden Ones.</t>
   </si>
   <si>
@@ -2537,9 +2336,6 @@
     <t>Ratonhnhaké:ton</t>
   </si>
   <si>
-    <t>"You are so easy to track."</t>
-  </si>
-  <si>
     <t>Gilbert Du Mortier</t>
   </si>
   <si>
@@ -2687,9 +2483,6 @@
     <t>Fuladh Al Haami</t>
   </si>
   <si>
-    <t>“We are messengers of justice, not the final judges."</t>
-  </si>
-  <si>
     <t>Hunter</t>
   </si>
   <si>
@@ -2748,6 +2541,213 @@
   </si>
   <si>
     <t>Witness</t>
+  </si>
+  <si>
+    <t>“Words instruct, illustrations lead.”</t>
+  </si>
+  <si>
+    <t>“We're made by the storms we walk through.”</t>
+  </si>
+  <si>
+    <t>“Be the predator, not the prey.”</t>
+  </si>
+  <si>
+    <t>“The gods only, I do serve.”</t>
+  </si>
+  <si>
+    <t>“If I was your punishment, you'd already be dead.”</t>
+  </si>
+  <si>
+    <t>“Yet for all their power, they couldn't protect you. Not from me.”</t>
+  </si>
+  <si>
+    <t>“I'm a storyteller, or I was. This war is forcing us all to new extremes.”</t>
+  </si>
+  <si>
+    <t>“I have an appetite for rare treasures.”</t>
+  </si>
+  <si>
+    <t>“I was born to bear these sword and shield.”</t>
+  </si>
+  <si>
+    <t>“It is not possible to step into the same river twice.”</t>
+  </si>
+  <si>
+    <t>“Sleep? I never sleep. I just wait. In the shadows.”</t>
+  </si>
+  <si>
+    <t>“From darkness we have come, and in darkness we shall stay.”</t>
+  </si>
+  <si>
+    <t>“It's just a flesh wound.”</t>
+  </si>
+  <si>
+    <t>“Ah, the gods have such a sense of humor!”</t>
+  </si>
+  <si>
+    <t>“Wealth, luxury, fame! What more could a woman want?”</t>
+  </si>
+  <si>
+    <t>“You had your chance to kill me, you won't get another.”</t>
+  </si>
+  <si>
+    <t>“I feel somewhat trapped. In this room, in this settlement, in this life.”</t>
+  </si>
+  <si>
+    <t>“I will fight against those who deny freedom to others.”</t>
+  </si>
+  <si>
+    <t>“Our Creed does not command us to be free. It commands us to be wise.”</t>
+  </si>
+  <si>
+    <t>“For the good of the Brotherhood, not for the purposes of vengeance.”</t>
+  </si>
+  <si>
+    <t>“All that is good in me, began with my father.”</t>
+  </si>
+  <si>
+    <t>“As we share the glory of our victories, so too should we share the pain of our defeat.”</t>
+  </si>
+  <si>
+    <t>“Nothing is true, everything is permitted.”</t>
+  </si>
+  <si>
+    <t>“We cannot hope to fight them, but we can still sabotage their efforts.”</t>
+  </si>
+  <si>
+    <t>“I'm not content to merely capture the world. I want to change it.”</t>
+  </si>
+  <si>
+    <t>“It is my business to know everything in this city.”</t>
+  </si>
+  <si>
+    <t>“Nobility comes from fighting beside your soldiers.”</t>
+  </si>
+  <si>
+    <t>“I hope you catch the plague, you bastard!”</t>
+  </si>
+  <si>
+    <t>“In sufficiently high doses, what serves as a cure can also become a lethal force.”</t>
+  </si>
+  <si>
+    <t>“Revenge is never a straight line.”</t>
+  </si>
+  <si>
+    <t>“Real sharpness comes without sweat”</t>
+  </si>
+  <si>
+    <t>“Freedom is the only condition for happiness.”</t>
+  </si>
+  <si>
+    <t>“A blade shall claim my final breath. My own, or my foe's.”</t>
+  </si>
+  <si>
+    <t>“Here I am ... with riches and a reputation, feeling no wiser than when I left home.”</t>
+  </si>
+  <si>
+    <t>“I must devote my energy to those who struggle for freedom.”</t>
+  </si>
+  <si>
+    <t>“Rise! So I can kill you again.”</t>
+  </si>
+  <si>
+    <t>“We follow a creed, aye. But it does not command us to act or submit - only to be wise.”</t>
+  </si>
+  <si>
+    <t>“Our goal must be to scatter our operations. To live and work among the people we protect.”</t>
+  </si>
+  <si>
+    <t>“If you had fought like a man, then you need not have been killed like a rat.”</t>
+  </si>
+  <si>
+    <t>“Commit injustice in this world, and I'll send you to the next.”</t>
+  </si>
+  <si>
+    <t>“You are so easy to track.”</t>
+  </si>
+  <si>
+    <t>“The trials we suffered getting here were strange and many.”</t>
+  </si>
+  <si>
+    <t>“Ideologies, like wolves, stay outside my cavern.”</t>
+  </si>
+  <si>
+    <t>“Your spirit is weak!”</t>
+  </si>
+  <si>
+    <t>“All that we do, all that we are, begins and ends with ourselves.”</t>
+  </si>
+  <si>
+    <t>“My fate is my own. My choice is my own.”</t>
+  </si>
+  <si>
+    <t>“Count yourself lucky this is the extent of your punishment.”</t>
+  </si>
+  <si>
+    <t>“If we danced about on a simple scale, you'd be right. But the truth is more complicated.”</t>
+  </si>
+  <si>
+    <t>“We speak for the hungry! We speak for the shivering!”</t>
+  </si>
+  <si>
+    <t>“The merit of all things lies in their difficulty.”</t>
+  </si>
+  <si>
+    <t>“Who's a good horse? You are!”</t>
+  </si>
+  <si>
+    <t>“That's confidential.”</t>
+  </si>
+  <si>
+    <t>“There is a reason why all things are as they are.”</t>
+  </si>
+  <si>
+    <t>“We learn from failure, not from success!”</t>
+  </si>
+  <si>
+    <t>“I believe I know someone who can help with that.”</t>
+  </si>
+  <si>
+    <t>“That's not very polite.”</t>
+  </si>
+  <si>
+    <t>“Courage is grace under pressure.”</t>
+  </si>
+  <si>
+    <t>“With determination, I will be triumphant!”</t>
+  </si>
+  <si>
+    <t>“If I can see it and I can touch it, then it is real!”</t>
+  </si>
+  <si>
+    <t>“Espionage is nothing but becoming a fly.”</t>
+  </si>
+  <si>
+    <t>“I don't answer to you. As I said, I'm here as a courtesy.”</t>
+  </si>
+  <si>
+    <t>“I'm going to kill you with my tea cup.”</t>
+  </si>
+  <si>
+    <t>“ I shall dance all my life... I would like to die, breathless, spent, at the end of a dance.”</t>
+  </si>
+  <si>
+    <t>“We are messengers of justice, not the final judges.”</t>
+  </si>
+  <si>
+    <t>“I don't believe in curses.”</t>
+  </si>
+  <si>
+    <t>“I have strength now. I know exactly who I am.”</t>
+  </si>
+  <si>
+    <t>“Even the gods cower in my wake. Kneel or die!”</t>
+  </si>
+  <si>
+    <t>“May the Father of Understanding guide us all.”</t>
+  </si>
+  <si>
+    <t>“Tyranny and injustice are just symptoms. Their true cause is human weakness.”</t>
   </si>
 </sst>
 </file>
@@ -3352,10 +3352,10 @@
   <dimension ref="A1:AI966"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3377,13 +3377,13 @@
   <sheetData>
     <row r="1" spans="1:35" s="18" customFormat="1" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>313</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>904</v>
+        <v>835</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>2</v>
@@ -3413,22 +3413,22 @@
         <v>6</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>680</v>
+        <v>616</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>679</v>
+        <v>615</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>681</v>
+        <v>617</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>682</v>
+        <v>618</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>683</v>
+        <v>619</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>684</v>
+        <v>620</v>
       </c>
       <c r="S1" s="10" t="s">
         <v>7</v>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>685</v>
+        <v>621</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -3501,16 +3501,16 @@
         <v>9</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>10</v>
+        <v>836</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>691</v>
+        <v>627</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>729</v>
+        <v>665</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>785</v>
+        <v>721</v>
       </c>
       <c r="I3" s="26">
         <v>2</v>
@@ -3525,25 +3525,25 @@
         <v>1</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>322</v>
+        <v>258</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
@@ -3567,25 +3567,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>685</v>
+        <v>621</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="34" t="s">
-        <v>14</v>
+        <v>837</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>692</v>
+        <v>628</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>730</v>
+        <v>666</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>786</v>
+        <v>722</v>
       </c>
       <c r="I4" s="26">
         <v>2</v>
@@ -3600,25 +3600,25 @@
         <v>2</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>323</v>
+        <v>259</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T4" s="23"/>
       <c r="U4" s="23"/>
@@ -3642,25 +3642,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>685</v>
+        <v>621</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="24" t="s">
-        <v>693</v>
+        <v>629</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>731</v>
+        <v>667</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>787</v>
+        <v>723</v>
       </c>
       <c r="I5" s="26">
         <v>3</v>
@@ -3675,25 +3675,25 @@
         <v>1</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>331</v>
+        <v>267</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="24" t="s">
-        <v>333</v>
+        <v>269</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T5" s="23"/>
       <c r="U5" s="23"/>
@@ -3717,25 +3717,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>685</v>
+        <v>621</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" s="24" t="s">
-        <v>694</v>
+        <v>630</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>732</v>
+        <v>668</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>788</v>
+        <v>724</v>
       </c>
       <c r="I6" s="26">
         <v>1</v>
@@ -3750,25 +3750,25 @@
         <v>2</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>337</v>
+        <v>273</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="Q6" s="24" t="s">
-        <v>339</v>
+        <v>275</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
@@ -3792,25 +3792,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>685</v>
+        <v>621</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>26</v>
+        <v>838</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>695</v>
+        <v>631</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>733</v>
+        <v>669</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>811</v>
+        <v>747</v>
       </c>
       <c r="I7" s="26">
         <v>2</v>
@@ -3825,25 +3825,25 @@
         <v>3</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>342</v>
+        <v>278</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>343</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="24" t="s">
-        <v>344</v>
+        <v>280</v>
       </c>
       <c r="R7" s="24" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -3867,25 +3867,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>685</v>
+        <v>621</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>30</v>
+        <v>839</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>696</v>
+        <v>632</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>734</v>
+        <v>670</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>789</v>
+        <v>725</v>
       </c>
       <c r="I8" s="26">
         <v>3</v>
@@ -3900,25 +3900,25 @@
         <v>1</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>346</v>
+        <v>282</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>348</v>
+        <v>284</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="R8" s="24" t="s">
-        <v>350</v>
+        <v>286</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T8" s="23"/>
       <c r="U8" s="23"/>
@@ -3942,25 +3942,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>35</v>
+        <v>840</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>697</v>
+        <v>633</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>735</v>
+        <v>671</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>790</v>
+        <v>726</v>
       </c>
       <c r="I9" s="26">
         <v>2</v>
@@ -3975,25 +3975,25 @@
         <v>2</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>351</v>
+        <v>287</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>352</v>
+        <v>288</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>354</v>
+        <v>290</v>
       </c>
       <c r="Q9" s="24" t="s">
-        <v>355</v>
+        <v>291</v>
       </c>
       <c r="R9" s="24" t="s">
-        <v>356</v>
+        <v>292</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T9" s="23"/>
       <c r="U9" s="23"/>
@@ -4017,25 +4017,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>37</v>
-      </c>
       <c r="E10" s="34" t="s">
-        <v>38</v>
+        <v>841</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>698</v>
+        <v>634</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>736</v>
+        <v>672</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>791</v>
+        <v>727</v>
       </c>
       <c r="I10" s="26">
         <v>2</v>
@@ -4050,25 +4050,25 @@
         <v>3</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>358</v>
+        <v>294</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>359</v>
+        <v>295</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="24" t="s">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="R10" s="24" t="s">
-        <v>362</v>
+        <v>298</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="T10" s="23"/>
       <c r="U10" s="23"/>
@@ -4092,25 +4092,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>821</v>
+        <v>842</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>699</v>
+        <v>635</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>737</v>
+        <v>673</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>792</v>
+        <v>728</v>
       </c>
       <c r="I11" s="26">
         <v>3</v>
@@ -4125,25 +4125,25 @@
         <v>2</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>354</v>
+        <v>290</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>364</v>
+        <v>300</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="Q11" s="24" t="s">
-        <v>366</v>
+        <v>302</v>
       </c>
       <c r="R11" s="24" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
@@ -4167,25 +4167,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>822</v>
+        <v>843</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>700</v>
+        <v>636</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>738</v>
+        <v>674</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>793</v>
+        <v>729</v>
       </c>
       <c r="I12" s="26">
         <v>2</v>
@@ -4200,25 +4200,25 @@
         <v>1</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>369</v>
+        <v>305</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="Q12" s="24" t="s">
-        <v>861</v>
+        <v>793</v>
       </c>
       <c r="R12" s="24" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
@@ -4242,25 +4242,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>823</v>
+        <v>844</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>701</v>
+        <v>637</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>739</v>
+        <v>675</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>794</v>
+        <v>730</v>
       </c>
       <c r="I13" s="26">
         <v>1</v>
@@ -4275,25 +4275,25 @@
         <v>2</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>339</v>
+        <v>275</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="24" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="R13" s="24" t="s">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T13" s="23"/>
       <c r="U13" s="23"/>
@@ -4317,25 +4317,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>50</v>
+        <v>845</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>702</v>
+        <v>638</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>733</v>
+        <v>669</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>795</v>
+        <v>731</v>
       </c>
       <c r="I14" s="26">
         <v>1</v>
@@ -4350,25 +4350,25 @@
         <v>3</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="24" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T14" s="23"/>
       <c r="U14" s="23"/>
@@ -4392,25 +4392,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>824</v>
+        <v>757</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>53</v>
+        <v>846</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>703</v>
+        <v>639</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>740</v>
+        <v>676</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>796</v>
+        <v>732</v>
       </c>
       <c r="I15" s="26">
         <v>1</v>
@@ -4425,25 +4425,25 @@
         <v>3</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="Q15" s="24" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="R15" s="24" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
@@ -4467,25 +4467,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>57</v>
+        <v>847</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>698</v>
+        <v>634</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>730</v>
+        <v>666</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>788</v>
+        <v>724</v>
       </c>
       <c r="I16" s="26">
         <v>3</v>
@@ -4500,25 +4500,25 @@
         <v>2</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="O16" s="24" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="24" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="R16" s="24" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="T16" s="23"/>
       <c r="U16" s="23"/>
@@ -4542,25 +4542,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>60</v>
-      </c>
       <c r="E17" s="34" t="s">
-        <v>61</v>
+        <v>848</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>700</v>
+        <v>636</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>741</v>
+        <v>677</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>797</v>
+        <v>733</v>
       </c>
       <c r="I17" s="26">
         <v>2</v>
@@ -4575,25 +4575,25 @@
         <v>2</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>390</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="R17" s="24" t="s">
-        <v>392</v>
+        <v>328</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="T17" s="23"/>
       <c r="U17" s="23"/>
@@ -4617,25 +4617,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>65</v>
+        <v>849</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>704</v>
+        <v>640</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>736</v>
+        <v>672</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>798</v>
+        <v>734</v>
       </c>
       <c r="I18" s="26">
         <v>2</v>
@@ -4650,25 +4650,25 @@
         <v>3</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>393</v>
+        <v>329</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="O18" s="24" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="24" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="R18" s="24" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="T18" s="23"/>
       <c r="U18" s="23"/>
@@ -4692,25 +4692,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>69</v>
+        <v>850</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>705</v>
+        <v>641</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>742</v>
+        <v>678</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>796</v>
+        <v>732</v>
       </c>
       <c r="I19" s="26">
         <v>1</v>
@@ -4725,25 +4725,25 @@
         <v>2</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="O19" s="24" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="24" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="R19" s="24" t="s">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="T19" s="23"/>
       <c r="U19" s="23"/>
@@ -4767,25 +4767,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>73</v>
+        <v>851</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>692</v>
+        <v>628</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>743</v>
+        <v>679</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>799</v>
+        <v>735</v>
       </c>
       <c r="I20" s="26">
         <v>1</v>
@@ -4800,25 +4800,25 @@
         <v>3</v>
       </c>
       <c r="M20" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="N20" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="N20" s="16" t="s">
-        <v>399</v>
-      </c>
       <c r="O20" s="24" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="24" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="R20" s="24" t="s">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
@@ -4842,25 +4842,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>706</v>
+        <v>642</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>744</v>
+        <v>680</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>800</v>
+        <v>736</v>
       </c>
       <c r="I21" s="26">
         <v>2</v>
@@ -4875,25 +4875,25 @@
         <v>2</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="Q21" s="24" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="R21" s="24" t="s">
-        <v>404</v>
+        <v>340</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="T21" s="23"/>
       <c r="U21" s="23"/>
@@ -4917,25 +4917,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>707</v>
+        <v>643</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>745</v>
+        <v>681</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>806</v>
+        <v>742</v>
       </c>
       <c r="I22" s="26">
         <v>2</v>
@@ -4950,25 +4950,25 @@
         <v>3</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>405</v>
+        <v>341</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="Q22" s="24" t="s">
-        <v>407</v>
+        <v>343</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>408</v>
+        <v>344</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="T22" s="23"/>
       <c r="U22" s="23"/>
@@ -4992,25 +4992,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>85</v>
+        <v>852</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>708</v>
+        <v>644</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>732</v>
+        <v>668</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>801</v>
+        <v>737</v>
       </c>
       <c r="I23" s="26">
         <v>3</v>
@@ -5025,25 +5025,25 @@
         <v>1</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>411</v>
+        <v>347</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="24" t="s">
-        <v>412</v>
+        <v>348</v>
       </c>
       <c r="R23" s="24" t="s">
-        <v>413</v>
+        <v>349</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="T23" s="23"/>
       <c r="U23" s="23"/>
@@ -5067,25 +5067,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="E24" s="34" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>709</v>
+        <v>645</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>746</v>
+        <v>682</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>802</v>
+        <v>738</v>
       </c>
       <c r="I24" s="26">
         <v>3</v>
@@ -5100,25 +5100,25 @@
         <v>2</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>825</v>
+        <v>758</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>416</v>
+        <v>352</v>
       </c>
       <c r="Q24" s="24" t="s">
-        <v>417</v>
+        <v>353</v>
       </c>
       <c r="R24" s="24" t="s">
-        <v>418</v>
+        <v>354</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="T24" s="23"/>
       <c r="U24" s="23"/>
@@ -5142,25 +5142,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>691</v>
+        <v>627</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>747</v>
+        <v>683</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>803</v>
+        <v>739</v>
       </c>
       <c r="I25" s="26">
         <v>1</v>
@@ -5175,25 +5175,25 @@
         <v>2</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>419</v>
+        <v>355</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>420</v>
+        <v>356</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>421</v>
+        <v>357</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>422</v>
+        <v>358</v>
       </c>
       <c r="Q25" s="24" t="s">
-        <v>423</v>
+        <v>359</v>
       </c>
       <c r="R25" s="24" t="s">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="T25" s="23"/>
       <c r="U25" s="23"/>
@@ -5217,25 +5217,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>96</v>
+        <v>853</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>704</v>
+        <v>640</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>748</v>
+        <v>684</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>804</v>
+        <v>740</v>
       </c>
       <c r="I26" s="26">
         <v>1</v>
@@ -5250,25 +5250,25 @@
         <v>2</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>425</v>
+        <v>361</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>427</v>
+        <v>363</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>428</v>
+        <v>364</v>
       </c>
       <c r="Q26" s="24" t="s">
-        <v>411</v>
+        <v>347</v>
       </c>
       <c r="R26" s="24" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="T26" s="23"/>
       <c r="U26" s="23"/>
@@ -5292,25 +5292,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>100</v>
+        <v>854</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>709</v>
+        <v>645</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>736</v>
+        <v>672</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>805</v>
+        <v>741</v>
       </c>
       <c r="I27" s="26">
         <v>2</v>
@@ -5325,25 +5325,25 @@
         <v>2</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>430</v>
+        <v>366</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="Q27" s="24" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="R27" s="24" t="s">
-        <v>434</v>
+        <v>370</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="T27" s="23"/>
       <c r="U27" s="23"/>
@@ -5367,25 +5367,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>104</v>
+        <v>855</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>710</v>
+        <v>646</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>749</v>
+        <v>685</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>788</v>
+        <v>724</v>
       </c>
       <c r="I28" s="26">
         <v>2</v>
@@ -5400,25 +5400,25 @@
         <v>1</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>435</v>
+        <v>371</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>436</v>
+        <v>372</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>437</v>
+        <v>373</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="Q28" s="24" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="R28" s="24" t="s">
-        <v>439</v>
+        <v>375</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="T28" s="23"/>
       <c r="U28" s="23"/>
@@ -5442,25 +5442,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>108</v>
+        <v>856</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>743</v>
+        <v>679</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>805</v>
+        <v>741</v>
       </c>
       <c r="I29" s="26">
         <v>1</v>
@@ -5475,25 +5475,25 @@
         <v>2</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>440</v>
+        <v>376</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="P29" s="24" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="Q29" s="24" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="R29" s="24" t="s">
-        <v>434</v>
+        <v>370</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="T29" s="23"/>
       <c r="U29" s="23"/>
@@ -5517,25 +5517,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>112</v>
+        <v>857</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>709</v>
+        <v>645</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>748</v>
+        <v>684</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>791</v>
+        <v>727</v>
       </c>
       <c r="I30" s="26">
         <v>3</v>
@@ -5550,25 +5550,25 @@
         <v>2</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>442</v>
+        <v>378</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>342</v>
+        <v>278</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>443</v>
+        <v>379</v>
       </c>
       <c r="R30" s="24" t="s">
-        <v>444</v>
+        <v>380</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="T30" s="23"/>
       <c r="U30" s="23"/>
@@ -5592,25 +5592,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>116</v>
+        <v>858</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>712</v>
+        <v>648</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>750</v>
+        <v>686</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>806</v>
+        <v>742</v>
       </c>
       <c r="I31" s="26">
         <v>2</v>
@@ -5625,25 +5625,25 @@
         <v>2</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>445</v>
+        <v>381</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>446</v>
+        <v>382</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>447</v>
+        <v>383</v>
       </c>
       <c r="R31" s="24" t="s">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="T31" s="23"/>
       <c r="U31" s="23"/>
@@ -5667,25 +5667,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>120</v>
+        <v>859</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>698</v>
+        <v>634</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>751</v>
+        <v>687</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>796</v>
+        <v>732</v>
       </c>
       <c r="I32" s="26">
         <v>2</v>
@@ -5700,25 +5700,25 @@
         <v>3</v>
       </c>
       <c r="M32" s="32" t="s">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>449</v>
+        <v>385</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>450</v>
+        <v>386</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="Q32" s="24" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="R32" s="24" t="s">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="T32" s="23"/>
       <c r="U32" s="23"/>
@@ -5742,25 +5742,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>692</v>
+        <v>628</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>752</v>
+        <v>688</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>799</v>
+        <v>735</v>
       </c>
       <c r="I33" s="26">
         <v>2</v>
@@ -5775,25 +5775,25 @@
         <v>2</v>
       </c>
       <c r="M33" s="32" t="s">
-        <v>430</v>
+        <v>366</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>452</v>
+        <v>388</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="Q33" s="24" t="s">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="R33" s="24" t="s">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="T33" s="23"/>
       <c r="U33" s="23"/>
@@ -5817,25 +5817,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>129</v>
+        <v>860</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>713</v>
+        <v>649</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>753</v>
+        <v>689</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>807</v>
+        <v>743</v>
       </c>
       <c r="I34" s="26">
         <v>3</v>
@@ -5850,25 +5850,25 @@
         <v>2</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>455</v>
+        <v>391</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>452</v>
+        <v>388</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>456</v>
+        <v>392</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="Q34" s="24" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="R34" s="24" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
@@ -5892,25 +5892,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>133</v>
+        <v>861</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>698</v>
+        <v>634</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>754</v>
+        <v>690</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>808</v>
+        <v>744</v>
       </c>
       <c r="I35" s="26">
         <v>3</v>
@@ -5925,25 +5925,25 @@
         <v>2</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="Q35" s="24" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="R35" s="24" t="s">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="T35" s="23"/>
       <c r="U35" s="23"/>
@@ -5967,25 +5967,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>826</v>
+        <v>759</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>135</v>
+        <v>862</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>714</v>
+        <v>650</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>755</v>
+        <v>691</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>800</v>
+        <v>736</v>
       </c>
       <c r="I36" s="26">
         <v>1</v>
@@ -6000,25 +6000,25 @@
         <v>2</v>
       </c>
       <c r="M36" s="32" t="s">
-        <v>460</v>
+        <v>396</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>339</v>
+        <v>275</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>461</v>
+        <v>397</v>
       </c>
       <c r="Q36" s="24" t="s">
-        <v>462</v>
+        <v>398</v>
       </c>
       <c r="R36" s="24" t="s">
-        <v>463</v>
+        <v>399</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="T36" s="23"/>
       <c r="U36" s="23"/>
@@ -6042,25 +6042,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>139</v>
+        <v>863</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>715</v>
+        <v>651</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>756</v>
+        <v>692</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>804</v>
+        <v>740</v>
       </c>
       <c r="I37" s="26">
         <v>3</v>
@@ -6075,25 +6075,25 @@
         <v>1</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>464</v>
+        <v>400</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="Q37" s="24" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="R37" s="24" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="T37" s="23"/>
       <c r="U37" s="23"/>
@@ -6117,25 +6117,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>142</v>
+        <v>864</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>716</v>
+        <v>652</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>757</v>
+        <v>693</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>791</v>
+        <v>727</v>
       </c>
       <c r="I38" s="26">
         <v>2</v>
@@ -6150,25 +6150,25 @@
         <v>3</v>
       </c>
       <c r="M38" s="32" t="s">
-        <v>466</v>
+        <v>402</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>467</v>
+        <v>403</v>
       </c>
       <c r="O38" s="24" t="s">
-        <v>468</v>
+        <v>404</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>827</v>
+        <v>760</v>
       </c>
       <c r="Q38" s="24" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="R38" s="24" t="s">
-        <v>470</v>
+        <v>406</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="T38" s="23"/>
       <c r="U38" s="23"/>
@@ -6192,25 +6192,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>706</v>
+        <v>642</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>751</v>
+        <v>687</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>805</v>
+        <v>741</v>
       </c>
       <c r="I39" s="26">
         <v>1</v>
@@ -6225,25 +6225,25 @@
         <v>3</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>471</v>
+        <v>407</v>
       </c>
       <c r="O39" s="24" t="s">
-        <v>472</v>
+        <v>408</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>473</v>
+        <v>409</v>
       </c>
       <c r="Q39" s="24" t="s">
-        <v>474</v>
+        <v>410</v>
       </c>
       <c r="R39" s="24" t="s">
-        <v>475</v>
+        <v>411</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="T39" s="23"/>
       <c r="U39" s="23"/>
@@ -6267,25 +6267,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>717</v>
+        <v>653</v>
       </c>
       <c r="G40" s="24" t="s">
+        <v>681</v>
+      </c>
+      <c r="H40" s="25" t="s">
         <v>745</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>809</v>
       </c>
       <c r="I40" s="26">
         <v>2</v>
@@ -6300,25 +6300,25 @@
         <v>2</v>
       </c>
       <c r="M40" s="32" t="s">
-        <v>476</v>
+        <v>412</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>477</v>
+        <v>413</v>
       </c>
       <c r="O40" s="24" t="s">
-        <v>478</v>
+        <v>414</v>
       </c>
       <c r="P40" s="24" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="Q40" s="24" t="s">
-        <v>480</v>
+        <v>416</v>
       </c>
       <c r="R40" s="24" t="s">
-        <v>481</v>
+        <v>417</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="T40" s="23"/>
       <c r="U40" s="23"/>
@@ -6342,25 +6342,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>155</v>
+        <v>865</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>706</v>
+        <v>642</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>736</v>
+        <v>672</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>796</v>
+        <v>732</v>
       </c>
       <c r="I41" s="26">
         <v>2</v>
@@ -6375,25 +6375,25 @@
         <v>2</v>
       </c>
       <c r="M41" s="32" t="s">
-        <v>482</v>
+        <v>418</v>
       </c>
       <c r="N41" s="16" t="s">
-        <v>483</v>
+        <v>419</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>484</v>
+        <v>420</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>485</v>
+        <v>421</v>
       </c>
       <c r="Q41" s="24" t="s">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="R41" s="24" t="s">
-        <v>487</v>
+        <v>423</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="T41" s="23"/>
       <c r="U41" s="23"/>
@@ -6417,25 +6417,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>158</v>
+        <v>866</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>709</v>
+        <v>645</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>758</v>
+        <v>694</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>800</v>
+        <v>736</v>
       </c>
       <c r="I42" s="26">
         <v>1</v>
@@ -6450,25 +6450,25 @@
         <v>2</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>488</v>
+        <v>424</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>489</v>
+        <v>425</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>490</v>
+        <v>426</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>473</v>
+        <v>409</v>
       </c>
       <c r="Q42" s="24" t="s">
-        <v>491</v>
+        <v>427</v>
       </c>
       <c r="R42" s="24" t="s">
-        <v>492</v>
+        <v>428</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="T42" s="23"/>
       <c r="U42" s="23"/>
@@ -6492,25 +6492,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>162</v>
+        <v>867</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>717</v>
+        <v>653</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>759</v>
+        <v>695</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>806</v>
+        <v>742</v>
       </c>
       <c r="I43" s="26">
         <v>2</v>
@@ -6525,25 +6525,25 @@
         <v>1</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>493</v>
+        <v>429</v>
       </c>
       <c r="N43" s="16" t="s">
-        <v>494</v>
+        <v>430</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>364</v>
+        <v>300</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="Q43" s="24" t="s">
-        <v>495</v>
+        <v>431</v>
       </c>
       <c r="R43" s="24" t="s">
-        <v>496</v>
+        <v>432</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="T43" s="23"/>
       <c r="U43" s="23"/>
@@ -6567,25 +6567,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>166</v>
+        <v>868</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>718</v>
+        <v>654</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>760</v>
+        <v>696</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>810</v>
+        <v>746</v>
       </c>
       <c r="I44" s="26">
         <v>1</v>
@@ -6600,25 +6600,25 @@
         <v>2</v>
       </c>
       <c r="M44" s="32" t="s">
-        <v>497</v>
+        <v>433</v>
       </c>
       <c r="N44" s="16" t="s">
-        <v>498</v>
+        <v>434</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>499</v>
+        <v>435</v>
       </c>
       <c r="P44" s="24" t="s">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="Q44" s="24" t="s">
-        <v>501</v>
+        <v>437</v>
       </c>
       <c r="R44" s="24" t="s">
-        <v>502</v>
+        <v>438</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="T44" s="23"/>
       <c r="U44" s="23"/>
@@ -6642,25 +6642,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>686</v>
+        <v>622</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>170</v>
+        <v>869</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>701</v>
+        <v>637</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>761</v>
+        <v>697</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>810</v>
+        <v>746</v>
       </c>
       <c r="I45" s="26">
         <v>1</v>
@@ -6675,25 +6675,25 @@
         <v>2</v>
       </c>
       <c r="M45" s="32" t="s">
-        <v>503</v>
+        <v>439</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>504</v>
+        <v>440</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>505</v>
+        <v>441</v>
       </c>
       <c r="Q45" s="24" t="s">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="R45" s="24" t="s">
-        <v>507</v>
+        <v>443</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="T45" s="23"/>
       <c r="U45" s="23"/>
@@ -6717,25 +6717,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>686</v>
+        <v>622</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>174</v>
+        <v>870</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>709</v>
+        <v>645</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>762</v>
+        <v>698</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>799</v>
+        <v>735</v>
       </c>
       <c r="I46" s="26">
         <v>1</v>
@@ -6750,25 +6750,25 @@
         <v>3</v>
       </c>
       <c r="M46" s="32" t="s">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>509</v>
+        <v>445</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="Q46" s="24" t="s">
-        <v>478</v>
+        <v>414</v>
       </c>
       <c r="R46" s="24" t="s">
-        <v>481</v>
+        <v>417</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>828</v>
+        <v>761</v>
       </c>
       <c r="T46" s="23"/>
       <c r="U46" s="23"/>
@@ -6792,25 +6792,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>686</v>
+        <v>622</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>177</v>
+        <v>871</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>700</v>
+        <v>636</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>763</v>
+        <v>699</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>802</v>
+        <v>738</v>
       </c>
       <c r="I47" s="26">
         <v>2</v>
@@ -6825,25 +6825,25 @@
         <v>3</v>
       </c>
       <c r="M47" s="32" t="s">
-        <v>511</v>
+        <v>447</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>512</v>
+        <v>448</v>
       </c>
       <c r="O47" s="24" t="s">
-        <v>513</v>
+        <v>449</v>
       </c>
       <c r="P47" s="24" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
       <c r="Q47" s="24" t="s">
-        <v>515</v>
+        <v>451</v>
       </c>
       <c r="R47" s="24" t="s">
-        <v>516</v>
+        <v>452</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>829</v>
+        <v>762</v>
       </c>
       <c r="T47" s="23"/>
       <c r="U47" s="23"/>
@@ -6867,25 +6867,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>686</v>
+        <v>622</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>180</v>
+        <v>872</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>708</v>
+        <v>644</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>730</v>
+        <v>666</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>806</v>
+        <v>742</v>
       </c>
       <c r="I48" s="26">
         <v>3</v>
@@ -6900,25 +6900,25 @@
         <v>2</v>
       </c>
       <c r="M48" s="32" t="s">
-        <v>517</v>
+        <v>453</v>
       </c>
       <c r="N48" s="16" t="s">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="O48" s="24" t="s">
-        <v>518</v>
+        <v>454</v>
       </c>
       <c r="P48" s="24" t="s">
-        <v>519</v>
+        <v>455</v>
       </c>
       <c r="Q48" s="24" t="s">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="R48" s="24" t="s">
-        <v>520</v>
+        <v>456</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>830</v>
+        <v>763</v>
       </c>
       <c r="T48" s="23"/>
       <c r="U48" s="23"/>
@@ -6942,25 +6942,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>686</v>
+        <v>622</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>183</v>
+        <v>873</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>736</v>
+        <v>672</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>811</v>
+        <v>747</v>
       </c>
       <c r="I49" s="26">
         <v>2</v>
@@ -6975,25 +6975,25 @@
         <v>3</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>517</v>
+        <v>453</v>
       </c>
       <c r="N49" s="16" t="s">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="O49" s="24" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="P49" s="24" t="s">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="Q49" s="24" t="s">
-        <v>522</v>
+        <v>458</v>
       </c>
       <c r="R49" s="24" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>831</v>
+        <v>764</v>
       </c>
       <c r="T49" s="23"/>
       <c r="U49" s="23"/>
@@ -7017,25 +7017,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>686</v>
+        <v>622</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>312</v>
+        <v>874</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>719</v>
+        <v>655</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>738</v>
+        <v>674</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>803</v>
+        <v>739</v>
       </c>
       <c r="I50" s="26">
         <v>2</v>
@@ -7050,25 +7050,25 @@
         <v>1</v>
       </c>
       <c r="M50" s="32" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="N50" s="16" t="s">
-        <v>525</v>
+        <v>461</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="P50" s="24" t="s">
-        <v>527</v>
+        <v>463</v>
       </c>
       <c r="Q50" s="24" t="s">
-        <v>528</v>
+        <v>464</v>
       </c>
       <c r="R50" s="24" t="s">
-        <v>529</v>
+        <v>465</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>832</v>
+        <v>765</v>
       </c>
       <c r="T50" s="23"/>
       <c r="U50" s="23"/>
@@ -7092,25 +7092,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>833</v>
+        <v>766</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>720</v>
+        <v>656</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>733</v>
+        <v>669</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>812</v>
+        <v>748</v>
       </c>
       <c r="I51" s="26">
         <v>1</v>
@@ -7125,25 +7125,25 @@
         <v>3</v>
       </c>
       <c r="M51" s="32" t="s">
-        <v>530</v>
+        <v>466</v>
       </c>
       <c r="N51" s="16" t="s">
-        <v>531</v>
+        <v>467</v>
       </c>
       <c r="O51" s="24" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="P51" s="24" t="s">
-        <v>522</v>
+        <v>458</v>
       </c>
       <c r="Q51" s="24" t="s">
-        <v>532</v>
+        <v>468</v>
       </c>
       <c r="R51" s="24" t="s">
-        <v>533</v>
+        <v>469</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="T51" s="23"/>
       <c r="U51" s="23"/>
@@ -7167,25 +7167,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>192</v>
+        <v>875</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>697</v>
+        <v>633</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>764</v>
+        <v>700</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>799</v>
+        <v>735</v>
       </c>
       <c r="I52" s="26">
         <v>2</v>
@@ -7200,25 +7200,25 @@
         <v>2</v>
       </c>
       <c r="M52" s="32" t="s">
-        <v>534</v>
+        <v>470</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>535</v>
+        <v>471</v>
       </c>
       <c r="O52" s="24" t="s">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="P52" s="24" t="s">
-        <v>536</v>
+        <v>472</v>
       </c>
       <c r="Q52" s="24" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="R52" s="24" t="s">
-        <v>537</v>
+        <v>473</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="T52" s="23"/>
       <c r="U52" s="23"/>
@@ -7242,25 +7242,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>834</v>
+        <v>876</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>721</v>
+        <v>657</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>765</v>
+        <v>701</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>796</v>
+        <v>732</v>
       </c>
       <c r="I53" s="26">
         <v>2</v>
@@ -7275,25 +7275,25 @@
         <v>3</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>538</v>
+        <v>474</v>
       </c>
       <c r="N53" s="16" t="s">
-        <v>539</v>
+        <v>475</v>
       </c>
       <c r="O53" s="24" t="s">
-        <v>462</v>
+        <v>398</v>
       </c>
       <c r="P53" s="24" t="s">
-        <v>540</v>
+        <v>476</v>
       </c>
       <c r="Q53" s="24" t="s">
-        <v>541</v>
+        <v>477</v>
       </c>
       <c r="R53" s="24" t="s">
-        <v>542</v>
+        <v>478</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="T53" s="23"/>
       <c r="U53" s="23"/>
@@ -7317,25 +7317,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>835</v>
+        <v>767</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>897</v>
+        <v>828</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>196</v>
+        <v>877</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>722</v>
+        <v>658</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>729</v>
+        <v>665</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>806</v>
+        <v>742</v>
       </c>
       <c r="I54" s="26">
         <v>2</v>
@@ -7350,25 +7350,25 @@
         <v>1</v>
       </c>
       <c r="M54" s="32" t="s">
-        <v>543</v>
+        <v>479</v>
       </c>
       <c r="N54" s="16" t="s">
-        <v>532</v>
+        <v>468</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>544</v>
+        <v>480</v>
       </c>
       <c r="P54" s="24" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="Q54" s="24" t="s">
-        <v>545</v>
+        <v>481</v>
       </c>
       <c r="R54" s="24" t="s">
-        <v>546</v>
+        <v>482</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="T54" s="23"/>
       <c r="U54" s="23"/>
@@ -7392,25 +7392,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>199</v>
+        <v>878</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>709</v>
+        <v>645</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>766</v>
+        <v>702</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>795</v>
+        <v>731</v>
       </c>
       <c r="I55" s="26">
         <v>2</v>
@@ -7425,25 +7425,25 @@
         <v>3</v>
       </c>
       <c r="M55" s="32" t="s">
-        <v>547</v>
+        <v>483</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>548</v>
+        <v>484</v>
       </c>
       <c r="O55" s="24" t="s">
-        <v>549</v>
+        <v>485</v>
       </c>
       <c r="P55" s="24" t="s">
-        <v>343</v>
+        <v>279</v>
       </c>
       <c r="Q55" s="24" t="s">
-        <v>550</v>
+        <v>486</v>
       </c>
       <c r="R55" s="24" t="s">
-        <v>551</v>
+        <v>487</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="T55" s="23"/>
       <c r="U55" s="23"/>
@@ -7467,25 +7467,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>836</v>
+        <v>768</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>202</v>
+        <v>879</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>719</v>
+        <v>655</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>767</v>
+        <v>703</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>810</v>
+        <v>746</v>
       </c>
       <c r="I56" s="26">
         <v>1</v>
@@ -7500,25 +7500,25 @@
         <v>3</v>
       </c>
       <c r="M56" s="32" t="s">
-        <v>530</v>
+        <v>466</v>
       </c>
       <c r="N56" s="16" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
       <c r="O56" s="24" t="s">
-        <v>552</v>
+        <v>488</v>
       </c>
       <c r="P56" s="24" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="Q56" s="24" t="s">
-        <v>553</v>
+        <v>489</v>
       </c>
       <c r="R56" s="24" t="s">
-        <v>554</v>
+        <v>490</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="T56" s="23"/>
       <c r="U56" s="23"/>
@@ -7542,25 +7542,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="D57" s="34" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>206</v>
+        <v>880</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>721</v>
+        <v>657</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>734</v>
+        <v>670</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>810</v>
+        <v>746</v>
       </c>
       <c r="I57" s="26">
         <v>2</v>
@@ -7575,25 +7575,25 @@
         <v>2</v>
       </c>
       <c r="M57" s="32" t="s">
-        <v>555</v>
+        <v>491</v>
       </c>
       <c r="N57" s="16" t="s">
-        <v>556</v>
+        <v>492</v>
       </c>
       <c r="O57" s="24" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="P57" s="24" t="s">
-        <v>532</v>
+        <v>468</v>
       </c>
       <c r="Q57" s="24" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="R57" s="24" t="s">
-        <v>557</v>
+        <v>493</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="T57" s="23"/>
       <c r="U57" s="23"/>
@@ -7617,25 +7617,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="D58" s="34" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>210</v>
+        <v>881</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>723</v>
+        <v>659</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>768</v>
+        <v>704</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>813</v>
+        <v>749</v>
       </c>
       <c r="I58" s="26">
         <v>1</v>
@@ -7650,25 +7650,25 @@
         <v>3</v>
       </c>
       <c r="M58" s="32" t="s">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="N58" s="16" t="s">
-        <v>558</v>
+        <v>494</v>
       </c>
       <c r="O58" s="24" t="s">
-        <v>559</v>
+        <v>495</v>
       </c>
       <c r="P58" s="24" t="s">
-        <v>560</v>
+        <v>496</v>
       </c>
       <c r="Q58" s="24" t="s">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="R58" s="24" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="T58" s="23"/>
       <c r="U58" s="23"/>
@@ -7692,25 +7692,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="D59" s="34" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>213</v>
+        <v>882</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>706</v>
+        <v>642</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>736</v>
+        <v>672</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>791</v>
+        <v>727</v>
       </c>
       <c r="I59" s="26">
         <v>3</v>
@@ -7725,25 +7725,25 @@
         <v>2</v>
       </c>
       <c r="M59" s="32" t="s">
-        <v>561</v>
+        <v>497</v>
       </c>
       <c r="N59" s="16" t="s">
-        <v>434</v>
+        <v>370</v>
       </c>
       <c r="O59" s="24" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="P59" s="24" t="s">
-        <v>562</v>
+        <v>498</v>
       </c>
       <c r="Q59" s="24" t="s">
-        <v>563</v>
+        <v>499</v>
       </c>
       <c r="R59" s="24" t="s">
-        <v>564</v>
+        <v>500</v>
       </c>
       <c r="S59" s="6" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="T59" s="23"/>
       <c r="U59" s="23"/>
@@ -7767,25 +7767,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>216</v>
+        <v>883</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>709</v>
+        <v>645</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>769</v>
+        <v>705</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>799</v>
+        <v>735</v>
       </c>
       <c r="I60" s="26">
         <v>2</v>
@@ -7800,25 +7800,25 @@
         <v>2</v>
       </c>
       <c r="M60" s="32" t="s">
-        <v>565</v>
+        <v>501</v>
       </c>
       <c r="N60" s="16" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="O60" s="24" t="s">
-        <v>837</v>
+        <v>769</v>
       </c>
       <c r="P60" s="24" t="s">
-        <v>566</v>
+        <v>502</v>
       </c>
       <c r="Q60" s="24" t="s">
-        <v>468</v>
+        <v>404</v>
       </c>
       <c r="R60" s="24" t="s">
-        <v>567</v>
+        <v>503</v>
       </c>
       <c r="S60" s="6" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="T60" s="23"/>
       <c r="U60" s="23"/>
@@ -7842,25 +7842,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="D61" s="34" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>219</v>
+        <v>884</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>696</v>
+        <v>632</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>770</v>
+        <v>706</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>808</v>
+        <v>744</v>
       </c>
       <c r="I61" s="26">
         <v>3</v>
@@ -7875,25 +7875,25 @@
         <v>1</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>568</v>
+        <v>504</v>
       </c>
       <c r="N61" s="16" t="s">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="O61" s="24" t="s">
-        <v>838</v>
+        <v>770</v>
       </c>
       <c r="P61" s="24" t="s">
-        <v>570</v>
+        <v>506</v>
       </c>
       <c r="Q61" s="24" t="s">
-        <v>571</v>
+        <v>507</v>
       </c>
       <c r="R61" s="24" t="s">
-        <v>572</v>
+        <v>508</v>
       </c>
       <c r="S61" s="6" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="T61" s="23"/>
       <c r="U61" s="23"/>
@@ -7917,25 +7917,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>222</v>
+        <v>885</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>701</v>
+        <v>637</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>771</v>
+        <v>707</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>814</v>
+        <v>750</v>
       </c>
       <c r="I62" s="26">
         <v>1</v>
@@ -7950,25 +7950,25 @@
         <v>2</v>
       </c>
       <c r="M62" s="32" t="s">
-        <v>573</v>
+        <v>509</v>
       </c>
       <c r="N62" s="16" t="s">
-        <v>574</v>
+        <v>510</v>
       </c>
       <c r="O62" s="24" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="P62" s="24" t="s">
-        <v>575</v>
+        <v>511</v>
       </c>
       <c r="Q62" s="24" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="R62" s="24" t="s">
-        <v>577</v>
+        <v>513</v>
       </c>
       <c r="S62" s="6" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="T62" s="23"/>
       <c r="U62" s="23"/>
@@ -7992,25 +7992,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>227</v>
+        <v>886</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>719</v>
+        <v>655</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>772</v>
+        <v>708</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>804</v>
+        <v>740</v>
       </c>
       <c r="I63" s="26">
         <v>1</v>
@@ -8025,25 +8025,25 @@
         <v>2</v>
       </c>
       <c r="M63" s="32" t="s">
-        <v>578</v>
+        <v>514</v>
       </c>
       <c r="N63" s="16" t="s">
-        <v>579</v>
+        <v>515</v>
       </c>
       <c r="O63" s="24" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="P63" s="24" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="Q63" s="24" t="s">
-        <v>580</v>
+        <v>516</v>
       </c>
       <c r="R63" s="24" t="s">
-        <v>581</v>
+        <v>517</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="T63" s="23"/>
       <c r="U63" s="23"/>
@@ -8067,25 +8067,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>724</v>
+        <v>660</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>773</v>
+        <v>709</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>790</v>
+        <v>726</v>
       </c>
       <c r="I64" s="26">
         <v>2</v>
@@ -8100,25 +8100,25 @@
         <v>3</v>
       </c>
       <c r="M64" s="32" t="s">
-        <v>430</v>
+        <v>366</v>
       </c>
       <c r="N64" s="16" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="O64" s="24" t="s">
-        <v>837</v>
+        <v>769</v>
       </c>
       <c r="P64" s="24" t="s">
-        <v>582</v>
+        <v>518</v>
       </c>
       <c r="Q64" s="24" t="s">
-        <v>583</v>
+        <v>519</v>
       </c>
       <c r="R64" s="24" t="s">
-        <v>581</v>
+        <v>517</v>
       </c>
       <c r="S64" s="6" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="T64" s="23"/>
       <c r="U64" s="23"/>
@@ -8142,25 +8142,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="D65" s="34" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>233</v>
+        <v>887</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>713</v>
+        <v>649</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>791</v>
+        <v>727</v>
       </c>
       <c r="I65" s="26">
         <v>2</v>
@@ -8175,25 +8175,25 @@
         <v>2</v>
       </c>
       <c r="M65" s="32" t="s">
-        <v>584</v>
+        <v>520</v>
       </c>
       <c r="N65" s="16" t="s">
-        <v>585</v>
+        <v>521</v>
       </c>
       <c r="O65" s="24" t="s">
-        <v>438</v>
+        <v>374</v>
       </c>
       <c r="P65" s="24" t="s">
-        <v>586</v>
+        <v>522</v>
       </c>
       <c r="Q65" s="24" t="s">
-        <v>579</v>
+        <v>515</v>
       </c>
       <c r="R65" s="24" t="s">
-        <v>587</v>
+        <v>523</v>
       </c>
       <c r="S65" s="6" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="T65" s="23"/>
       <c r="U65" s="23"/>
@@ -8217,25 +8217,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>236</v>
+        <v>888</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>706</v>
+        <v>642</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>775</v>
+        <v>711</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>803</v>
+        <v>739</v>
       </c>
       <c r="I66" s="26">
         <v>3</v>
@@ -8250,25 +8250,25 @@
         <v>1</v>
       </c>
       <c r="M66" s="32" t="s">
-        <v>588</v>
+        <v>524</v>
       </c>
       <c r="N66" s="16" t="s">
-        <v>589</v>
+        <v>525</v>
       </c>
       <c r="O66" s="24" t="s">
-        <v>590</v>
+        <v>526</v>
       </c>
       <c r="P66" s="24" t="s">
-        <v>591</v>
+        <v>527</v>
       </c>
       <c r="Q66" s="24" t="s">
-        <v>592</v>
+        <v>528</v>
       </c>
       <c r="R66" s="24" t="s">
-        <v>593</v>
+        <v>529</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="T66" s="23"/>
       <c r="U66" s="23"/>
@@ -8292,25 +8292,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>239</v>
+        <v>889</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>719</v>
+        <v>655</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>776</v>
+        <v>712</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>807</v>
+        <v>743</v>
       </c>
       <c r="I67" s="26">
         <v>2</v>
@@ -8325,25 +8325,25 @@
         <v>3</v>
       </c>
       <c r="M67" s="32" t="s">
-        <v>594</v>
+        <v>530</v>
       </c>
       <c r="N67" s="16" t="s">
-        <v>595</v>
+        <v>531</v>
       </c>
       <c r="O67" s="24" t="s">
-        <v>596</v>
+        <v>532</v>
       </c>
       <c r="P67" s="24" t="s">
-        <v>597</v>
+        <v>533</v>
       </c>
       <c r="Q67" s="24" t="s">
-        <v>579</v>
+        <v>515</v>
       </c>
       <c r="R67" s="24" t="s">
-        <v>598</v>
+        <v>534</v>
       </c>
       <c r="S67" s="6" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="T67" s="23"/>
       <c r="U67" s="23"/>
@@ -8367,25 +8367,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>243</v>
+        <v>890</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>700</v>
+        <v>636</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>734</v>
+        <v>670</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>790</v>
+        <v>726</v>
       </c>
       <c r="I68" s="26">
         <v>3</v>
@@ -8400,25 +8400,25 @@
         <v>2</v>
       </c>
       <c r="M68" s="32" t="s">
-        <v>599</v>
+        <v>535</v>
       </c>
       <c r="N68" s="16" t="s">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="O68" s="24" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="P68" s="24" t="s">
-        <v>600</v>
+        <v>536</v>
       </c>
       <c r="Q68" s="24" t="s">
-        <v>601</v>
+        <v>537</v>
       </c>
       <c r="R68" s="24" t="s">
-        <v>520</v>
+        <v>456</v>
       </c>
       <c r="S68" s="6" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="T68" s="23"/>
       <c r="U68" s="23"/>
@@ -8442,25 +8442,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>248</v>
+        <v>891</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>698</v>
+        <v>634</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>772</v>
+        <v>708</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>798</v>
+        <v>734</v>
       </c>
       <c r="I69" s="26">
         <v>2</v>
@@ -8475,25 +8475,25 @@
         <v>2</v>
       </c>
       <c r="M69" s="32" t="s">
-        <v>602</v>
+        <v>538</v>
       </c>
       <c r="N69" s="16" t="s">
-        <v>603</v>
+        <v>539</v>
       </c>
       <c r="O69" s="24" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="P69" s="24" t="s">
-        <v>582</v>
+        <v>518</v>
       </c>
       <c r="Q69" s="24" t="s">
-        <v>604</v>
+        <v>540</v>
       </c>
       <c r="R69" s="24" t="s">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="S69" s="6" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="T69" s="23"/>
       <c r="U69" s="23"/>
@@ -8517,25 +8517,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="D70" s="34" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>251</v>
+        <v>892</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>719</v>
+        <v>655</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>777</v>
+        <v>713</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>791</v>
+        <v>727</v>
       </c>
       <c r="I70" s="26">
         <v>2</v>
@@ -8550,25 +8550,25 @@
         <v>2</v>
       </c>
       <c r="M70" s="32" t="s">
-        <v>605</v>
+        <v>541</v>
       </c>
       <c r="N70" s="16" t="s">
-        <v>606</v>
+        <v>542</v>
       </c>
       <c r="O70" s="24" t="s">
-        <v>607</v>
+        <v>543</v>
       </c>
       <c r="P70" s="24" t="s">
-        <v>608</v>
+        <v>544</v>
       </c>
       <c r="Q70" s="24" t="s">
-        <v>609</v>
+        <v>545</v>
       </c>
       <c r="R70" s="24" t="s">
-        <v>610</v>
+        <v>546</v>
       </c>
       <c r="S70" s="6" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="T70" s="23"/>
       <c r="U70" s="23"/>
@@ -8592,25 +8592,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="D71" s="34" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>254</v>
+        <v>893</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>702</v>
+        <v>638</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>778</v>
+        <v>714</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>796</v>
+        <v>732</v>
       </c>
       <c r="I71" s="26">
         <v>1</v>
@@ -8625,25 +8625,25 @@
         <v>3</v>
       </c>
       <c r="M71" s="32" t="s">
-        <v>839</v>
+        <v>771</v>
       </c>
       <c r="N71" s="16" t="s">
-        <v>580</v>
+        <v>516</v>
       </c>
       <c r="O71" s="24" t="s">
-        <v>611</v>
+        <v>547</v>
       </c>
       <c r="P71" s="24" t="s">
-        <v>612</v>
+        <v>548</v>
       </c>
       <c r="Q71" s="24" t="s">
-        <v>613</v>
+        <v>549</v>
       </c>
       <c r="R71" s="24" t="s">
-        <v>614</v>
+        <v>550</v>
       </c>
       <c r="S71" s="6" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="T71" s="23"/>
       <c r="U71" s="23"/>
@@ -8667,25 +8667,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="D72" s="34" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>257</v>
+        <v>894</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>701</v>
+        <v>637</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>779</v>
+        <v>715</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>814</v>
+        <v>750</v>
       </c>
       <c r="I72" s="26">
         <v>1</v>
@@ -8700,25 +8700,25 @@
         <v>2</v>
       </c>
       <c r="M72" s="32" t="s">
-        <v>615</v>
+        <v>551</v>
       </c>
       <c r="N72" s="16" t="s">
-        <v>616</v>
+        <v>552</v>
       </c>
       <c r="O72" s="24" t="s">
-        <v>617</v>
+        <v>553</v>
       </c>
       <c r="P72" s="24" t="s">
-        <v>618</v>
+        <v>554</v>
       </c>
       <c r="Q72" s="24" t="s">
-        <v>619</v>
+        <v>555</v>
       </c>
       <c r="R72" s="24" t="s">
-        <v>620</v>
+        <v>556</v>
       </c>
       <c r="S72" s="6" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="T72" s="23"/>
       <c r="U72" s="23"/>
@@ -8742,25 +8742,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="D73" s="34" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>260</v>
+        <v>895</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>764</v>
+        <v>700</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>808</v>
+        <v>744</v>
       </c>
       <c r="I73" s="26">
         <v>3</v>
@@ -8775,25 +8775,25 @@
         <v>1</v>
       </c>
       <c r="M73" s="32" t="s">
-        <v>621</v>
+        <v>557</v>
       </c>
       <c r="N73" s="16" t="s">
-        <v>622</v>
+        <v>558</v>
       </c>
       <c r="O73" s="24" t="s">
-        <v>623</v>
+        <v>559</v>
       </c>
       <c r="P73" s="24" t="s">
-        <v>624</v>
+        <v>560</v>
       </c>
       <c r="Q73" s="24" t="s">
-        <v>625</v>
+        <v>561</v>
       </c>
       <c r="R73" s="24" t="s">
-        <v>626</v>
+        <v>562</v>
       </c>
       <c r="S73" s="6" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="T73" s="23"/>
       <c r="U73" s="23"/>
@@ -8817,25 +8817,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="D74" s="34" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>264</v>
+        <v>896</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>692</v>
+        <v>628</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>764</v>
+        <v>700</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>799</v>
+        <v>735</v>
       </c>
       <c r="I74" s="26">
         <v>2</v>
@@ -8850,25 +8850,25 @@
         <v>3</v>
       </c>
       <c r="M74" s="32" t="s">
-        <v>627</v>
+        <v>563</v>
       </c>
       <c r="N74" s="16" t="s">
-        <v>628</v>
+        <v>564</v>
       </c>
       <c r="O74" s="24" t="s">
-        <v>629</v>
+        <v>565</v>
       </c>
       <c r="P74" s="24" t="s">
-        <v>604</v>
+        <v>540</v>
       </c>
       <c r="Q74" s="24" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="R74" s="24" t="s">
-        <v>630</v>
+        <v>566</v>
       </c>
       <c r="S74" s="6" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="T74" s="23"/>
       <c r="U74" s="23"/>
@@ -8892,25 +8892,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="D75" s="34" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>269</v>
+        <v>897</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>725</v>
+        <v>661</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>780</v>
+        <v>716</v>
       </c>
       <c r="H75" s="25" t="s">
-        <v>800</v>
+        <v>736</v>
       </c>
       <c r="I75" s="26">
         <v>1</v>
@@ -8925,25 +8925,25 @@
         <v>3</v>
       </c>
       <c r="M75" s="32" t="s">
-        <v>602</v>
+        <v>538</v>
       </c>
       <c r="N75" s="16" t="s">
-        <v>631</v>
+        <v>567</v>
       </c>
       <c r="O75" s="24" t="s">
-        <v>632</v>
+        <v>568</v>
       </c>
       <c r="P75" s="24" t="s">
-        <v>633</v>
+        <v>569</v>
       </c>
       <c r="Q75" s="24" t="s">
-        <v>840</v>
+        <v>772</v>
       </c>
       <c r="R75" s="24" t="s">
-        <v>634</v>
+        <v>570</v>
       </c>
       <c r="S75" s="6" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="T75" s="23"/>
       <c r="U75" s="23"/>
@@ -8967,25 +8967,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="D76" s="34" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>781</v>
+        <v>717</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>786</v>
+        <v>722</v>
       </c>
       <c r="I76" s="26">
         <v>3</v>
@@ -9000,25 +9000,25 @@
         <v>2</v>
       </c>
       <c r="M76" s="32" t="s">
-        <v>841</v>
+        <v>773</v>
       </c>
       <c r="N76" s="16" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="O76" s="24" t="s">
-        <v>635</v>
+        <v>571</v>
       </c>
       <c r="P76" s="24" t="s">
-        <v>843</v>
+        <v>775</v>
       </c>
       <c r="Q76" s="24" t="s">
-        <v>842</v>
+        <v>774</v>
       </c>
       <c r="R76" s="24" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="S76" s="6" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="T76" s="23"/>
       <c r="U76" s="23"/>
@@ -9042,25 +9042,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="D77" s="34" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>276</v>
+        <v>898</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>726</v>
+        <v>662</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>770</v>
+        <v>706</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>799</v>
+        <v>735</v>
       </c>
       <c r="I77" s="26">
         <v>3</v>
@@ -9075,25 +9075,25 @@
         <v>1</v>
       </c>
       <c r="M77" s="32" t="s">
-        <v>844</v>
+        <v>776</v>
       </c>
       <c r="N77" s="16" t="s">
-        <v>527</v>
+        <v>463</v>
       </c>
       <c r="O77" s="24" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="P77" s="24" t="s">
-        <v>845</v>
+        <v>777</v>
       </c>
       <c r="Q77" s="24" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="R77" s="24" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="S77" s="6" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="T77" s="23"/>
       <c r="U77" s="23"/>
@@ -9117,25 +9117,25 @@
         <v>76</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="D78" s="34" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>721</v>
+        <v>657</v>
       </c>
       <c r="G78" s="24" t="s">
+        <v>687</v>
+      </c>
+      <c r="H78" s="25" t="s">
         <v>751</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>815</v>
       </c>
       <c r="I78" s="26">
         <v>2</v>
@@ -9150,25 +9150,25 @@
         <v>2</v>
       </c>
       <c r="M78" s="32" t="s">
-        <v>640</v>
+        <v>576</v>
       </c>
       <c r="N78" s="16" t="s">
-        <v>625</v>
+        <v>561</v>
       </c>
       <c r="O78" s="24" t="s">
-        <v>641</v>
+        <v>577</v>
       </c>
       <c r="P78" s="24" t="s">
-        <v>642</v>
+        <v>578</v>
       </c>
       <c r="Q78" s="24" t="s">
-        <v>643</v>
+        <v>579</v>
       </c>
       <c r="R78" s="24" t="s">
-        <v>644</v>
+        <v>580</v>
       </c>
       <c r="S78" s="6" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="T78" s="23"/>
       <c r="U78" s="23"/>
@@ -9192,25 +9192,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>712</v>
+        <v>648</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>743</v>
+        <v>679</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>816</v>
+        <v>752</v>
       </c>
       <c r="I79" s="26">
         <v>1</v>
@@ -9225,25 +9225,25 @@
         <v>3</v>
       </c>
       <c r="M79" s="32" t="s">
-        <v>645</v>
+        <v>581</v>
       </c>
       <c r="N79" s="16" t="s">
-        <v>646</v>
+        <v>582</v>
       </c>
       <c r="O79" s="24" t="s">
-        <v>647</v>
+        <v>583</v>
       </c>
       <c r="P79" s="24" t="s">
-        <v>648</v>
+        <v>584</v>
       </c>
       <c r="Q79" s="24" t="s">
-        <v>649</v>
+        <v>585</v>
       </c>
       <c r="R79" s="24" t="s">
-        <v>650</v>
+        <v>586</v>
       </c>
       <c r="S79" s="6" t="s">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="T79" s="23"/>
       <c r="U79" s="23"/>
@@ -9267,25 +9267,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="D80" s="34" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>694</v>
+        <v>630</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>782</v>
+        <v>718</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>796</v>
+        <v>732</v>
       </c>
       <c r="I80" s="26">
         <v>2</v>
@@ -9300,25 +9300,25 @@
         <v>2</v>
       </c>
       <c r="M80" s="32" t="s">
-        <v>651</v>
+        <v>587</v>
       </c>
       <c r="N80" s="16" t="s">
-        <v>652</v>
+        <v>588</v>
       </c>
       <c r="O80" s="24" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="P80" s="24" t="s">
-        <v>654</v>
+        <v>590</v>
       </c>
       <c r="Q80" s="24" t="s">
-        <v>655</v>
+        <v>591</v>
       </c>
       <c r="R80" s="24" t="s">
-        <v>656</v>
+        <v>592</v>
       </c>
       <c r="S80" s="6" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="T80" s="23"/>
       <c r="U80" s="23"/>
@@ -9342,25 +9342,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>846</v>
+        <v>778</v>
       </c>
       <c r="D81" s="34" t="s">
-        <v>898</v>
+        <v>829</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>847</v>
+        <v>779</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>692</v>
+        <v>628</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>848</v>
+        <v>780</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>849</v>
+        <v>781</v>
       </c>
       <c r="I81" s="26">
         <v>3</v>
@@ -9375,25 +9375,25 @@
         <v>2</v>
       </c>
       <c r="M81" s="32" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="N81" s="16" t="s">
-        <v>850</v>
+        <v>782</v>
       </c>
       <c r="O81" s="24" t="s">
-        <v>851</v>
+        <v>783</v>
       </c>
       <c r="P81" s="24" t="s">
-        <v>852</v>
+        <v>784</v>
       </c>
       <c r="Q81" s="24" t="s">
-        <v>853</v>
+        <v>785</v>
       </c>
       <c r="R81" s="24" t="s">
-        <v>854</v>
+        <v>786</v>
       </c>
       <c r="S81" s="6" t="s">
-        <v>855</v>
+        <v>787</v>
       </c>
       <c r="T81" s="23"/>
       <c r="U81" s="23"/>
@@ -9417,25 +9417,25 @@
         <v>80</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="D82" s="34" t="s">
-        <v>899</v>
+        <v>830</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>856</v>
+        <v>788</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>857</v>
+        <v>789</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>858</v>
+        <v>790</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>859</v>
+        <v>791</v>
       </c>
       <c r="I82" s="26">
         <v>1</v>
@@ -9450,25 +9450,25 @@
         <v>3</v>
       </c>
       <c r="M82" s="32" t="s">
-        <v>860</v>
+        <v>792</v>
       </c>
       <c r="N82" s="16" t="s">
-        <v>861</v>
+        <v>793</v>
       </c>
       <c r="O82" s="24" t="s">
-        <v>862</v>
+        <v>794</v>
       </c>
       <c r="P82" s="24" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="Q82" s="24" t="s">
-        <v>863</v>
+        <v>795</v>
       </c>
       <c r="R82" s="24" t="s">
-        <v>864</v>
+        <v>796</v>
       </c>
       <c r="S82" s="6" t="s">
-        <v>865</v>
+        <v>797</v>
       </c>
       <c r="T82" s="23"/>
       <c r="U82" s="23"/>
@@ -9492,25 +9492,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>866</v>
+        <v>798</v>
       </c>
       <c r="D83" s="34" t="s">
-        <v>900</v>
+        <v>831</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>867</v>
+        <v>799</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>706</v>
+        <v>642</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>868</v>
+        <v>800</v>
       </c>
       <c r="H83" s="25" t="s">
-        <v>787</v>
+        <v>723</v>
       </c>
       <c r="I83" s="26">
         <v>2</v>
@@ -9525,25 +9525,25 @@
         <v>1</v>
       </c>
       <c r="M83" s="32" t="s">
-        <v>860</v>
+        <v>792</v>
       </c>
       <c r="N83" s="16" t="s">
-        <v>869</v>
+        <v>801</v>
       </c>
       <c r="O83" s="24" t="s">
-        <v>870</v>
+        <v>802</v>
       </c>
       <c r="P83" s="24" t="s">
-        <v>871</v>
+        <v>803</v>
       </c>
       <c r="Q83" s="24" t="s">
-        <v>872</v>
+        <v>804</v>
       </c>
       <c r="R83" s="24" t="s">
-        <v>873</v>
+        <v>805</v>
       </c>
       <c r="S83" s="6" t="s">
-        <v>865</v>
+        <v>797</v>
       </c>
       <c r="T83" s="23"/>
       <c r="U83" s="23"/>
@@ -9567,25 +9567,25 @@
         <v>82</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>874</v>
+        <v>806</v>
       </c>
       <c r="D84" s="34" t="s">
-        <v>901</v>
+        <v>832</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>875</v>
+        <v>807</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>876</v>
+        <v>808</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>806</v>
+        <v>742</v>
       </c>
       <c r="I84" s="26">
         <v>2</v>
@@ -9600,25 +9600,25 @@
         <v>2</v>
       </c>
       <c r="M84" s="32" t="s">
-        <v>877</v>
+        <v>809</v>
       </c>
       <c r="N84" s="16" t="s">
-        <v>878</v>
+        <v>810</v>
       </c>
       <c r="O84" s="24" t="s">
-        <v>879</v>
+        <v>811</v>
       </c>
       <c r="P84" s="24" t="s">
-        <v>880</v>
+        <v>812</v>
       </c>
       <c r="Q84" s="24" t="s">
-        <v>881</v>
+        <v>813</v>
       </c>
       <c r="R84" s="24" t="s">
-        <v>882</v>
+        <v>814</v>
       </c>
       <c r="S84" s="6" t="s">
-        <v>865</v>
+        <v>797</v>
       </c>
       <c r="T84" s="23"/>
       <c r="U84" s="23"/>
@@ -9642,25 +9642,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>883</v>
+        <v>815</v>
       </c>
       <c r="D85" s="34" t="s">
-        <v>902</v>
+        <v>833</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>709</v>
+        <v>645</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>885</v>
+        <v>816</v>
       </c>
       <c r="H85" s="25" t="s">
-        <v>791</v>
+        <v>727</v>
       </c>
       <c r="I85" s="26">
         <v>3</v>
@@ -9675,25 +9675,25 @@
         <v>2</v>
       </c>
       <c r="M85" s="32" t="s">
-        <v>886</v>
+        <v>817</v>
       </c>
       <c r="N85" s="16" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="O85" s="24" t="s">
-        <v>887</v>
+        <v>818</v>
       </c>
       <c r="P85" s="24" t="s">
-        <v>888</v>
+        <v>819</v>
       </c>
       <c r="Q85" s="24" t="s">
-        <v>889</v>
+        <v>820</v>
       </c>
       <c r="R85" s="24" t="s">
-        <v>851</v>
+        <v>783</v>
       </c>
       <c r="S85" s="6" t="s">
-        <v>890</v>
+        <v>821</v>
       </c>
       <c r="T85" s="23"/>
       <c r="U85" s="23"/>
@@ -9717,25 +9717,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>891</v>
+        <v>822</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>903</v>
+        <v>834</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>892</v>
+        <v>823</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>706</v>
+        <v>642</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>893</v>
+        <v>824</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>797</v>
+        <v>733</v>
       </c>
       <c r="I86" s="26">
         <v>3</v>
@@ -9750,25 +9750,25 @@
         <v>1</v>
       </c>
       <c r="M86" s="32" t="s">
-        <v>894</v>
+        <v>825</v>
       </c>
       <c r="N86" s="16" t="s">
-        <v>881</v>
+        <v>813</v>
       </c>
       <c r="O86" s="24" t="s">
-        <v>889</v>
+        <v>820</v>
       </c>
       <c r="P86" s="24" t="s">
-        <v>895</v>
+        <v>826</v>
       </c>
       <c r="Q86" s="24" t="s">
-        <v>852</v>
+        <v>784</v>
       </c>
       <c r="R86" s="24" t="s">
-        <v>896</v>
+        <v>827</v>
       </c>
       <c r="S86" s="6" t="s">
-        <v>865</v>
+        <v>797</v>
       </c>
       <c r="T86" s="23"/>
       <c r="U86" s="23"/>
@@ -9792,25 +9792,25 @@
         <v>85</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>687</v>
+        <v>623</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>292</v>
+        <v>234</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>293</v>
+        <v>900</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>708</v>
+        <v>644</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>783</v>
+        <v>719</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>817</v>
+        <v>753</v>
       </c>
       <c r="I87" s="26">
         <v>2</v>
@@ -9825,25 +9825,25 @@
         <v>1</v>
       </c>
       <c r="M87" s="32" t="s">
-        <v>657</v>
+        <v>593</v>
       </c>
       <c r="N87" s="16" t="s">
-        <v>658</v>
+        <v>594</v>
       </c>
       <c r="O87" s="24" t="s">
-        <v>659</v>
+        <v>595</v>
       </c>
       <c r="P87" s="24" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="Q87" s="24" t="s">
-        <v>660</v>
+        <v>596</v>
       </c>
       <c r="R87" s="24" t="s">
-        <v>661</v>
+        <v>597</v>
       </c>
       <c r="S87" s="6" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="T87" s="23"/>
       <c r="U87" s="23"/>
@@ -9867,25 +9867,25 @@
         <v>86</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>688</v>
+        <v>624</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="D88" s="34" t="s">
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>727</v>
+        <v>663</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>784</v>
+        <v>720</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>800</v>
+        <v>736</v>
       </c>
       <c r="I88" s="26">
         <v>1</v>
@@ -9900,25 +9900,25 @@
         <v>3</v>
       </c>
       <c r="M88" s="32" t="s">
-        <v>662</v>
+        <v>598</v>
       </c>
       <c r="N88" s="16" t="s">
-        <v>663</v>
+        <v>599</v>
       </c>
       <c r="O88" s="24" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="P88" s="24" t="s">
-        <v>664</v>
+        <v>600</v>
       </c>
       <c r="Q88" s="24" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="R88" s="24" t="s">
-        <v>520</v>
+        <v>456</v>
       </c>
       <c r="S88" s="6" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="T88" s="23"/>
       <c r="U88" s="23"/>
@@ -9942,25 +9942,25 @@
         <v>87</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>688</v>
+        <v>624</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="D89" s="34" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>300</v>
+        <v>901</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>717</v>
+        <v>653</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>766</v>
+        <v>702</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>818</v>
+        <v>754</v>
       </c>
       <c r="I89" s="26">
         <v>2</v>
@@ -9975,25 +9975,25 @@
         <v>2</v>
       </c>
       <c r="M89" s="32" t="s">
-        <v>665</v>
+        <v>601</v>
       </c>
       <c r="N89" s="16" t="s">
-        <v>666</v>
+        <v>602</v>
       </c>
       <c r="O89" s="24" t="s">
-        <v>667</v>
+        <v>603</v>
       </c>
       <c r="P89" s="24" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="Q89" s="24" t="s">
-        <v>668</v>
+        <v>604</v>
       </c>
       <c r="R89" s="24" t="s">
-        <v>669</v>
+        <v>605</v>
       </c>
       <c r="S89" s="6" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="T89" s="23"/>
       <c r="U89" s="23"/>
@@ -10017,25 +10017,25 @@
         <v>88</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="D90" s="34" t="s">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>304</v>
+        <v>902</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>728</v>
+        <v>664</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>767</v>
+        <v>703</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>819</v>
+        <v>755</v>
       </c>
       <c r="I90" s="26">
         <v>1</v>
@@ -10050,25 +10050,25 @@
         <v>2</v>
       </c>
       <c r="M90" s="32" t="s">
-        <v>670</v>
+        <v>606</v>
       </c>
       <c r="N90" s="16" t="s">
-        <v>671</v>
+        <v>607</v>
       </c>
       <c r="O90" s="24" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="P90" s="24" t="s">
-        <v>672</v>
+        <v>608</v>
       </c>
       <c r="Q90" s="24" t="s">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="R90" s="24" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="S90" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T90" s="23"/>
       <c r="U90" s="23"/>
@@ -10092,25 +10092,25 @@
         <v>89</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>689</v>
+        <v>625</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="D91" s="34" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>307</v>
+        <v>903</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>721</v>
+        <v>657</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>733</v>
+        <v>669</v>
       </c>
       <c r="H91" s="25" t="s">
-        <v>805</v>
+        <v>741</v>
       </c>
       <c r="I91" s="26">
         <v>1</v>
@@ -10125,25 +10125,25 @@
         <v>3</v>
       </c>
       <c r="M91" s="32" t="s">
-        <v>673</v>
+        <v>609</v>
       </c>
       <c r="N91" s="16" t="s">
-        <v>674</v>
+        <v>610</v>
       </c>
       <c r="O91" s="24" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="P91" s="24" t="s">
-        <v>675</v>
+        <v>611</v>
       </c>
       <c r="Q91" s="24" t="s">
-        <v>676</v>
+        <v>612</v>
       </c>
       <c r="R91" s="24" t="s">
-        <v>677</v>
+        <v>613</v>
       </c>
       <c r="S91" s="6" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="T91" s="23"/>
       <c r="U91" s="23"/>
@@ -10167,25 +10167,25 @@
         <v>90</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>690</v>
+        <v>626</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="D92" s="34" t="s">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>310</v>
+        <v>904</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>692</v>
+        <v>628</v>
       </c>
       <c r="G92" s="24" t="s">
-        <v>761</v>
+        <v>697</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>790</v>
+        <v>726</v>
       </c>
       <c r="I92" s="26">
         <v>2</v>
@@ -10200,25 +10200,25 @@
         <v>2</v>
       </c>
       <c r="M92" s="32" t="s">
-        <v>678</v>
+        <v>614</v>
       </c>
       <c r="N92" s="16" t="s">
-        <v>674</v>
+        <v>610</v>
       </c>
       <c r="O92" s="24" t="s">
-        <v>519</v>
+        <v>455</v>
       </c>
       <c r="P92" s="24" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="Q92" s="24" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="R92" s="24" t="s">
-        <v>529</v>
+        <v>465</v>
       </c>
       <c r="S92" s="6" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="T92" s="23"/>
       <c r="U92" s="23"/>
